--- a/HR_results.xlsx
+++ b/HR_results.xlsx
@@ -1,21 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\ucloud\RSI Breathing Study\Publications\Poster_ECSS2024_Acute_effects\Acute_SPB_post_RSI_ECSS2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BE0B2-5E36-4FD0-8B7E-1B500A5E0EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>HR_endlastrun</t>
+  </si>
+  <si>
+    <t>HR_endactive</t>
+  </si>
+  <si>
+    <t>HR_endbreath</t>
+  </si>
+  <si>
+    <t>RMSSD_endlastrun</t>
+  </si>
+  <si>
+    <t>RMSSD_endactive</t>
+  </si>
+  <si>
+    <t>RMSSD_endbreath</t>
+  </si>
+  <si>
+    <t>HF_Power_endlastrun</t>
+  </si>
+  <si>
+    <t>HF_Power_endactive</t>
+  </si>
+  <si>
+    <t>HF_Power_endbreath</t>
+  </si>
+  <si>
+    <t>LF_Power_endlastrun</t>
+  </si>
+  <si>
+    <t>LF_Power_endactive</t>
+  </si>
+  <si>
+    <t>LF_Power_endbreath</t>
+  </si>
+  <si>
+    <t>LF2HF_endbreath</t>
+  </si>
+  <si>
+    <t>LF2HF_endactive</t>
+  </si>
+  <si>
+    <t>LF2HF_endlastrun</t>
+  </si>
+  <si>
+    <t>lnrMSSD_endbreath</t>
+  </si>
+  <si>
+    <t>lnrMSSD_endlastrun</t>
+  </si>
+  <si>
+    <t>lnrMSSD_endactive</t>
+  </si>
+  <si>
+    <t>lnHF_endbreath</t>
+  </si>
+  <si>
+    <t>lnHF_endlastrun</t>
+  </si>
+  <si>
+    <t>lnHF_endactive</t>
+  </si>
+  <si>
+    <t>lnLF_endbreath</t>
+  </si>
+  <si>
+    <t>lnLF_endlastrun</t>
+  </si>
+  <si>
+    <t>lnLF_endactive</t>
+  </si>
+  <si>
+    <t>lnLF2HF_endbreath</t>
+  </si>
+  <si>
+    <t>lnLF2HF_endactive</t>
+  </si>
+  <si>
+    <t>lnLF2HF_endlastrun</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +175,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,216 +476,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HR_endlastrun</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>HR_endactive</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>HR_endbreath</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RMSSD_endlastrun</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RMSSD_endactive</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMSSD_endbreath</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>HF_Power_endlastrun</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HF_Power_endactive</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>HF_Power_endbreath</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LF_Power_endlastrun</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LF_Power_endactive</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LF_Power_endbreath</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>LF2HF_endbreath</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>LF2HF_endactive</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>LF2HF_endlastrun</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>lnrMSSD_endbreath</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>lnrMSSD_endlastrun</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>lnrMSSD_endactive</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>lnHF_endbreath</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>lnHF_endlastrun</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>lnHF_endactive</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF_endbreath</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF_endlastrun</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF_endactive</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF2HF_endbreath</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF2HF_endactive</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>lnLF2HF_endlastrun</t>
-        </is>
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>149.518976088499</v>
+        <v>149.51897608849899</v>
       </c>
       <c r="F2">
         <v>134.2324470394669</v>
       </c>
       <c r="G2">
-        <v>96.10499232498591</v>
+        <v>96.104992324985915</v>
       </c>
       <c r="H2">
-        <v>3.629058834905961</v>
+        <v>3.6290588349059609</v>
       </c>
       <c r="I2">
-        <v>4.387482193696006</v>
+        <v>4.3874821936960062</v>
       </c>
       <c r="J2">
-        <v>3.934300878720352</v>
+        <v>3.9343008787203519</v>
       </c>
       <c r="K2">
-        <v>6.741272839962306</v>
+        <v>6.7412728399623063</v>
       </c>
       <c r="L2">
-        <v>8.054658697376825</v>
+        <v>8.0546586973768246</v>
       </c>
       <c r="M2">
         <v>37.58936248376348</v>
       </c>
       <c r="N2">
-        <v>3.87185422201901</v>
+        <v>3.8718542220190102</v>
       </c>
       <c r="O2">
         <v>3.77820311156824</v>
@@ -568,70 +649,66 @@
         <v>20.30955534730894</v>
       </c>
       <c r="Q2">
-        <v>0.5403006064835907</v>
+        <v>0.54030060648359068</v>
       </c>
       <c r="R2">
         <v>0.4690705408534187</v>
       </c>
       <c r="S2">
-        <v>0.5743506180415417</v>
+        <v>0.57435061804154175</v>
       </c>
       <c r="T2">
-        <v>0.5948675698617368</v>
+        <v>0.59486756986173683</v>
       </c>
       <c r="U2">
-        <v>0.5597940091120684</v>
+        <v>0.55979400911206845</v>
       </c>
       <c r="V2">
-        <v>0.6422153669222543</v>
+        <v>0.64221536692225434</v>
       </c>
       <c r="W2">
-        <v>1.575064960134363</v>
+        <v>1.5750649601343629</v>
       </c>
       <c r="X2">
         <v>0.8287419047225556</v>
       </c>
       <c r="Y2">
-        <v>0.9060471426464509</v>
+        <v>0.90604714264645092</v>
       </c>
       <c r="Z2">
-        <v>1.307700415166302</v>
+        <v>1.3077004151663021</v>
       </c>
       <c r="AA2">
-        <v>0.5879189974574937</v>
+        <v>0.58791899745749365</v>
       </c>
       <c r="AB2">
-        <v>0.5772853013524156</v>
+        <v>0.57728530135241563</v>
       </c>
       <c r="AC2">
-        <v>-0.2673645449680614</v>
+        <v>-0.26736454496806139</v>
       </c>
       <c r="AD2">
-        <v>-0.3287618412940354</v>
+        <v>-0.32876184129403541</v>
       </c>
       <c r="AE2">
         <v>-0.240822907265062</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>153.0365903819128</v>
+        <v>153.03659038191279</v>
       </c>
       <c r="F3">
         <v>138.6124416664733</v>
@@ -640,196 +717,188 @@
         <v>115.6837734037219</v>
       </c>
       <c r="H3">
-        <v>5.392587505084187</v>
+        <v>5.3925875050841867</v>
       </c>
       <c r="I3">
-        <v>2.976624618197281</v>
+        <v>2.9766246181972811</v>
       </c>
       <c r="J3">
-        <v>3.395728706959529</v>
+        <v>3.3957287069595292</v>
       </c>
       <c r="K3">
-        <v>10.31014583134873</v>
+        <v>10.310145831348731</v>
       </c>
       <c r="L3">
-        <v>11.87344102564131</v>
+        <v>11.873441025641309</v>
       </c>
       <c r="M3">
         <v>23.04180764999797</v>
       </c>
       <c r="N3">
-        <v>4.822983290270773</v>
+        <v>4.8229832902707734</v>
       </c>
       <c r="O3">
-        <v>6.558362108068777</v>
+        <v>6.5583621080687768</v>
       </c>
       <c r="P3">
         <v>10.68231817080598</v>
       </c>
       <c r="Q3">
-        <v>0.4636059085757935</v>
+        <v>0.46360590857579348</v>
       </c>
       <c r="R3">
-        <v>0.5523556392713498</v>
+        <v>0.55235563927134979</v>
       </c>
       <c r="S3">
-        <v>0.4677900166655403</v>
+        <v>0.46779001666554032</v>
       </c>
       <c r="T3">
-        <v>0.5309329861134827</v>
+        <v>0.53093298611348272</v>
       </c>
       <c r="U3">
-        <v>0.7317972010934262</v>
+        <v>0.73179720109342616</v>
       </c>
       <c r="V3">
-        <v>0.4737240692706057</v>
+        <v>0.47372406927060567</v>
       </c>
       <c r="W3">
-        <v>1.362516546870293</v>
+        <v>1.3625165468702931</v>
       </c>
       <c r="X3">
         <v>1.01326480818382</v>
       </c>
       <c r="Y3">
-        <v>1.074576599483615</v>
+        <v>1.0745765994836149</v>
       </c>
       <c r="Z3">
-        <v>1.028665509203938</v>
+        <v>1.0286655092039381</v>
       </c>
       <c r="AA3">
-        <v>0.6833157572659074</v>
+        <v>0.68331575726590743</v>
       </c>
       <c r="AB3">
-        <v>0.8167953917774738</v>
+        <v>0.81679539177747384</v>
       </c>
       <c r="AC3">
-        <v>-0.3338510376663558</v>
+        <v>-0.33385103766635582</v>
       </c>
       <c r="AD3">
-        <v>-0.2577812077061408</v>
+        <v>-0.25778120770614082</v>
       </c>
       <c r="AE3">
-        <v>-0.3299490509179127</v>
+        <v>-0.32994905091791271</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>180.8403055602215</v>
+        <v>180.84030556022151</v>
       </c>
       <c r="F4">
-        <v>152.7089034690837</v>
+        <v>152.70890346908371</v>
       </c>
       <c r="G4">
-        <v>126.4911847118966</v>
+        <v>126.49118471189659</v>
       </c>
       <c r="H4">
-        <v>2.137151311989162</v>
+        <v>2.1371513119891619</v>
       </c>
       <c r="I4">
-        <v>1.973332140089301</v>
+        <v>1.9733321400893009</v>
       </c>
       <c r="J4">
-        <v>3.697566767481881</v>
+        <v>3.6975667674818808</v>
       </c>
       <c r="K4">
-        <v>4.514199131702606</v>
+        <v>4.5141991317026058</v>
       </c>
       <c r="L4">
-        <v>3.287534047994826</v>
+        <v>3.2875340479948258</v>
       </c>
       <c r="M4">
-        <v>5.136114612560995</v>
+        <v>5.1361146125609949</v>
       </c>
       <c r="N4">
         <v>1.898437594274224</v>
       </c>
       <c r="O4">
-        <v>2.471454102636195</v>
+        <v>2.4714541026361951</v>
       </c>
       <c r="P4">
-        <v>128.3185502196552</v>
+        <v>128.31855021965521</v>
       </c>
       <c r="Q4">
-        <v>24.98358387599773</v>
+        <v>24.983583875997731</v>
       </c>
       <c r="R4">
-        <v>0.751765325181534</v>
+        <v>0.75176532518153405</v>
       </c>
       <c r="S4">
-        <v>0.4205480393945751</v>
+        <v>0.42054803939457508</v>
       </c>
       <c r="T4">
-        <v>0.5679160248561242</v>
+        <v>0.56791602485612425</v>
       </c>
       <c r="U4">
-        <v>0.3298352716425831</v>
+        <v>0.32983527164258308</v>
       </c>
       <c r="V4">
-        <v>0.2952001893920468</v>
+        <v>0.29520018939204679</v>
       </c>
       <c r="W4">
-        <v>0.7106347064641109</v>
+        <v>0.71063470646411087</v>
       </c>
       <c r="X4">
-        <v>0.6545807128924145</v>
+        <v>0.65458071289241448</v>
       </c>
       <c r="Y4">
-        <v>0.5168702593775713</v>
+        <v>0.51687025937757125</v>
       </c>
       <c r="Z4">
         <v>2.108289444182291</v>
       </c>
       <c r="AA4">
-        <v>0.278396325517008</v>
+        <v>0.27839632551700799</v>
       </c>
       <c r="AB4">
-        <v>0.3929525495906775</v>
+        <v>0.39295254959067749</v>
       </c>
       <c r="AC4">
-        <v>1.39765473771818</v>
+        <v>1.3976547377181801</v>
       </c>
       <c r="AD4">
         <v>-0.1239177097868937</v>
       </c>
       <c r="AE4">
-        <v>-0.3761843873754064</v>
+        <v>-0.37618438737540638</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>176.6539539516652</v>
+        <v>176.65395395166519</v>
       </c>
       <c r="F5">
         <v>131.3453992501594</v>
@@ -838,190 +907,182 @@
         <v>108.5295223611608</v>
       </c>
       <c r="H5">
-        <v>2.188002815774673</v>
+        <v>2.1880028157746731</v>
       </c>
       <c r="I5">
-        <v>4.385494058773927</v>
+        <v>4.3854940587739266</v>
       </c>
       <c r="J5">
-        <v>4.216123923056787</v>
+        <v>4.2161239230567871</v>
       </c>
       <c r="K5">
-        <v>4.84118068047269</v>
+        <v>4.8411806804726902</v>
       </c>
       <c r="L5">
         <v>14.89829424632252</v>
       </c>
       <c r="M5">
-        <v>16.65823457529053</v>
+        <v>16.658234575290528</v>
       </c>
       <c r="N5">
-        <v>2.270007993265314</v>
+        <v>2.2700079932653141</v>
       </c>
       <c r="O5">
         <v>13.71875480310764</v>
       </c>
       <c r="P5">
-        <v>48.20602522383441</v>
+        <v>48.206025223834409</v>
       </c>
       <c r="Q5">
-        <v>2.893825573529821</v>
+        <v>2.8938255735298211</v>
       </c>
       <c r="R5">
-        <v>0.9208272152695577</v>
+        <v>0.92082721526955769</v>
       </c>
       <c r="S5">
-        <v>0.4688955325343634</v>
+        <v>0.46889553253436339</v>
       </c>
       <c r="T5">
-        <v>0.6249133674579989</v>
+        <v>0.62491336745799886</v>
       </c>
       <c r="U5">
-        <v>0.3400478765620403</v>
+        <v>0.34004787656204027</v>
       </c>
       <c r="V5">
-        <v>0.6420185269865537</v>
+        <v>0.64201852698655371</v>
       </c>
       <c r="W5">
-        <v>1.221628973371132</v>
+        <v>1.2216289733711321</v>
       </c>
       <c r="X5">
-        <v>0.6849512914960796</v>
+        <v>0.68495129149607958</v>
       </c>
       <c r="Y5">
-        <v>1.173136547485009</v>
+        <v>1.1731365474850091</v>
       </c>
       <c r="Z5">
         <v>1.683101323672999</v>
       </c>
       <c r="AA5">
-        <v>0.356027386455196</v>
+        <v>0.35602738645519599</v>
       </c>
       <c r="AB5">
-        <v>1.137314693974172</v>
+        <v>1.1373146939741721</v>
       </c>
       <c r="AC5">
-        <v>0.4614723503018662</v>
+        <v>0.46147235030186617</v>
       </c>
       <c r="AD5">
-        <v>-0.03582185351083686</v>
+        <v>-3.582185351083686E-2</v>
       </c>
       <c r="AE5">
-        <v>-0.3289239050408835</v>
+        <v>-0.32892390504088348</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>179.1002302517801</v>
+        <v>179.10023025178009</v>
       </c>
       <c r="F6">
         <v>124.1206408284208</v>
       </c>
       <c r="G6">
-        <v>104.7535483452614</v>
+        <v>104.75354834526139</v>
       </c>
       <c r="H6">
-        <v>3.364520768252173</v>
+        <v>3.3645207682521732</v>
       </c>
       <c r="I6">
-        <v>3.698692724309509</v>
+        <v>3.6986927243095091</v>
       </c>
       <c r="J6">
-        <v>5.005878896798276</v>
+        <v>5.0058788967982757</v>
       </c>
       <c r="K6">
-        <v>5.284462520382106</v>
+        <v>5.2844625203821058</v>
       </c>
       <c r="L6">
-        <v>9.741678444262474</v>
+        <v>9.7416784442624742</v>
       </c>
       <c r="M6">
-        <v>36.62555424481047</v>
+        <v>36.625554244810473</v>
       </c>
       <c r="N6">
-        <v>2.376096091575861</v>
+        <v>2.3760960915758611</v>
       </c>
       <c r="O6">
         <v>10.19260065184368</v>
       </c>
       <c r="P6">
-        <v>160.5596092630377</v>
+        <v>160.55960926303769</v>
       </c>
       <c r="Q6">
-        <v>4.383813776300398</v>
+        <v>4.3838137763003981</v>
       </c>
       <c r="R6">
-        <v>1.046287937973028</v>
+        <v>1.0462879379730281</v>
       </c>
       <c r="S6">
-        <v>0.4496381765243463</v>
+        <v>0.44963817652434629</v>
       </c>
       <c r="T6">
-        <v>0.6994803388622099</v>
+        <v>0.69948033886220995</v>
       </c>
       <c r="U6">
-        <v>0.52692321342613</v>
+        <v>0.52692321342613002</v>
       </c>
       <c r="V6">
         <v>0.5680482530023705</v>
       </c>
       <c r="W6">
-        <v>1.563784205475245</v>
+        <v>1.5637842054752451</v>
       </c>
       <c r="X6">
-        <v>0.7230008220497807</v>
+        <v>0.72300082204978067</v>
       </c>
       <c r="Y6">
-        <v>0.9886337901723961</v>
+        <v>0.98863379017239605</v>
       </c>
       <c r="Z6">
-        <v>2.205636302584106</v>
+        <v>2.2056363025841059</v>
       </c>
       <c r="AA6">
-        <v>0.3758639999443836</v>
+        <v>0.37586399994438358</v>
       </c>
       <c r="AB6">
-        <v>1.008285008799639</v>
+        <v>1.0082850087996389</v>
       </c>
       <c r="AC6">
-        <v>0.6418520971088605</v>
+        <v>0.64185209710886049</v>
       </c>
       <c r="AD6">
-        <v>0.01965121862724329</v>
+        <v>1.965121862724329E-2</v>
       </c>
       <c r="AE6">
-        <v>-0.3471368221053971</v>
+        <v>-0.34713682210539709</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1033,94 +1094,90 @@
         <v>124.8919993022442</v>
       </c>
       <c r="G7">
-        <v>94.87415455347843</v>
+        <v>94.874154553478434</v>
       </c>
       <c r="H7">
-        <v>4.733793936310166</v>
+        <v>4.7337939363101658</v>
       </c>
       <c r="I7">
-        <v>4.777147497340423</v>
+        <v>4.7771474973404233</v>
       </c>
       <c r="J7">
-        <v>7.627059919179503</v>
+        <v>7.6270599191795032</v>
       </c>
       <c r="K7">
-        <v>5.901391946693098</v>
+        <v>5.9013919466930984</v>
       </c>
       <c r="L7">
-        <v>10.24574391533826</v>
+        <v>10.245743915338259</v>
       </c>
       <c r="M7">
-        <v>31.92579877117552</v>
+        <v>31.925798771175518</v>
       </c>
       <c r="N7">
-        <v>2.212196997896909</v>
+        <v>2.2121969978969092</v>
       </c>
       <c r="O7">
-        <v>6.565310530119737</v>
+        <v>6.5653105301197368</v>
       </c>
       <c r="P7">
-        <v>202.9215094167477</v>
+        <v>202.92150941674771</v>
       </c>
       <c r="Q7">
-        <v>6.356035470597439</v>
+        <v>6.3560354705974387</v>
       </c>
       <c r="R7">
-        <v>0.6407841718834318</v>
+        <v>0.64078417188343184</v>
       </c>
       <c r="S7">
         <v>0.3748602055039803</v>
       </c>
       <c r="T7">
-        <v>0.8823571582763238</v>
+        <v>0.88235715827632377</v>
       </c>
       <c r="U7">
-        <v>0.6752093490152855</v>
+        <v>0.67520934901528551</v>
       </c>
       <c r="V7">
-        <v>0.6791686505971757</v>
+        <v>0.67916865059717568</v>
       </c>
       <c r="W7">
-        <v>1.50414177195187</v>
+        <v>1.5041417719518699</v>
       </c>
       <c r="X7">
-        <v>0.7709544596878408</v>
+        <v>0.77095445968784082</v>
       </c>
       <c r="Y7">
-        <v>1.0105434968121</v>
+        <v>1.0105434968121001</v>
       </c>
       <c r="Z7">
-        <v>2.307328084124996</v>
+        <v>2.3073280841249959</v>
       </c>
       <c r="AA7">
-        <v>0.344823798622754</v>
+        <v>0.34482379862275397</v>
       </c>
       <c r="AB7">
-        <v>0.8172552724404311</v>
+        <v>0.81725527244043106</v>
       </c>
       <c r="AC7">
-        <v>0.8031863121731256</v>
+        <v>0.80318631217312564</v>
       </c>
       <c r="AD7">
-        <v>-0.1932882243716691</v>
+        <v>-0.19328822437166909</v>
       </c>
       <c r="AE7">
-        <v>-0.4261306610650868</v>
+        <v>-0.42613066106508679</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1129,49 +1186,49 @@
         <v>169.3382003354225</v>
       </c>
       <c r="F8">
-        <v>137.7354134185873</v>
+        <v>137.73541341858731</v>
       </c>
       <c r="G8">
-        <v>132.4535385708411</v>
+        <v>132.45353857084109</v>
       </c>
       <c r="H8">
-        <v>19.58480066730123</v>
+        <v>19.584800667301231</v>
       </c>
       <c r="I8">
-        <v>26.04383768727971</v>
+        <v>26.043837687279709</v>
       </c>
       <c r="J8">
-        <v>3.102738166036278</v>
+        <v>3.1027381660362781</v>
       </c>
       <c r="K8">
-        <v>8.354663172831572</v>
+        <v>8.3546631728315717</v>
       </c>
       <c r="L8">
-        <v>17.71065658131836</v>
+        <v>17.710656581318361</v>
       </c>
       <c r="M8">
-        <v>25.52475366539728</v>
+        <v>25.524753665397281</v>
       </c>
       <c r="N8">
-        <v>5.000313481611079</v>
+        <v>5.0003134816110792</v>
       </c>
       <c r="O8">
-        <v>9.613160671657178</v>
+        <v>9.6131606716571785</v>
       </c>
       <c r="P8">
         <v>51.0456794876131</v>
       </c>
       <c r="Q8">
-        <v>1.999850034079402</v>
+        <v>1.9998500340794021</v>
       </c>
       <c r="R8">
-        <v>0.5427896265459395</v>
+        <v>0.54278962654593954</v>
       </c>
       <c r="S8">
-        <v>0.5985056941459398</v>
+        <v>0.59850569414593979</v>
       </c>
       <c r="T8">
-        <v>0.4917451278743706</v>
+        <v>0.49174512787437058</v>
       </c>
       <c r="U8">
         <v>1.291919155688241</v>
@@ -1180,13 +1237,13 @@
         <v>1.415704980034618</v>
       </c>
       <c r="W8">
-        <v>1.406961559484711</v>
+        <v>1.4069615594847109</v>
       </c>
       <c r="X8">
-        <v>0.9219289455364927</v>
+        <v>0.92192894553649274</v>
       </c>
       <c r="Y8">
-        <v>1.248234661944326</v>
+        <v>1.2482346619443261</v>
       </c>
       <c r="Z8">
         <v>1.707958989241839</v>
@@ -1195,73 +1252,69 @@
         <v>0.6989972321492598</v>
       </c>
       <c r="AB8">
-        <v>0.9828662010482633</v>
+        <v>0.98286620104826328</v>
       </c>
       <c r="AC8">
-        <v>0.3009974297571273</v>
+        <v>0.30099742975712729</v>
       </c>
       <c r="AD8">
         <v>-0.2653684608960627</v>
       </c>
       <c r="AE8">
-        <v>-0.2229317133872329</v>
+        <v>-0.22293171338723289</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>171.2642338455676</v>
+        <v>171.26423384556759</v>
       </c>
       <c r="F9">
-        <v>131.6559479605872</v>
+        <v>131.65594796058721</v>
       </c>
       <c r="G9">
         <v>103.065282277554</v>
       </c>
       <c r="H9">
-        <v>5.739813110673254</v>
+        <v>5.7398131106732544</v>
       </c>
       <c r="I9">
         <v>11.85808472006765</v>
       </c>
       <c r="J9">
-        <v>8.965279561936963</v>
+        <v>8.9652795619369634</v>
       </c>
       <c r="K9">
-        <v>5.06106110400389</v>
+        <v>5.0610611040038904</v>
       </c>
       <c r="L9">
-        <v>12.28194576175409</v>
+        <v>12.281945761754089</v>
       </c>
       <c r="M9">
-        <v>61.68636642986441</v>
+        <v>61.686366429864407</v>
       </c>
       <c r="N9">
-        <v>1.952052742338097</v>
+        <v>1.9520527423380969</v>
       </c>
       <c r="O9">
         <v>11.36387267011458</v>
       </c>
       <c r="P9">
-        <v>474.3910679323994</v>
+        <v>474.39106793239938</v>
       </c>
       <c r="Q9">
-        <v>7.690371396275514</v>
+        <v>7.6903713962755136</v>
       </c>
       <c r="R9">
         <v>0.925250191667644</v>
@@ -1270,55 +1323,51 @@
         <v>0.3857002913467682</v>
       </c>
       <c r="T9">
-        <v>0.9525638365991019</v>
+        <v>0.95256383659910193</v>
       </c>
       <c r="U9">
-        <v>0.7588977519232887</v>
+        <v>0.75889775192328868</v>
       </c>
       <c r="V9">
-        <v>1.074014548836273</v>
+        <v>1.0740145488362729</v>
       </c>
       <c r="W9">
-        <v>1.790189189340511</v>
+        <v>1.7901891893405111</v>
       </c>
       <c r="X9">
-        <v>0.7042415807333114</v>
+        <v>0.70424158073331145</v>
       </c>
       <c r="Y9">
-        <v>1.089267175164459</v>
+        <v>1.0892671751644589</v>
       </c>
       <c r="Z9">
         <v>2.676136503323765</v>
       </c>
       <c r="AA9">
-        <v>0.2904915476528819</v>
+        <v>0.29049154765288188</v>
       </c>
       <c r="AB9">
-        <v>1.05552635889669</v>
+        <v>1.0555263588966901</v>
       </c>
       <c r="AC9">
-        <v>0.8859473139832542</v>
+        <v>0.88594731398325421</v>
       </c>
       <c r="AD9">
-        <v>-0.03374081626776925</v>
+        <v>-3.3740816267769251E-2</v>
       </c>
       <c r="AE9">
-        <v>-0.4137500330804296</v>
+        <v>-0.41375003308042962</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1327,34 +1376,34 @@
         <v>181.686569458881</v>
       </c>
       <c r="F10">
-        <v>142.902459297324</v>
+        <v>142.90245929732399</v>
       </c>
       <c r="G10">
-        <v>129.2602106426556</v>
+        <v>129.26021064265561</v>
       </c>
       <c r="H10">
-        <v>2.569698806341125</v>
+        <v>2.5696988063411248</v>
       </c>
       <c r="I10">
-        <v>4.27843014889521</v>
+        <v>4.2784301488952101</v>
       </c>
       <c r="J10">
-        <v>2.189811770575674</v>
+        <v>2.1898117705756741</v>
       </c>
       <c r="K10">
-        <v>4.581548304356376</v>
+        <v>4.5815483043563763</v>
       </c>
       <c r="L10">
-        <v>7.379260698155942</v>
+        <v>7.3792606981559423</v>
       </c>
       <c r="M10">
-        <v>14.24385695417043</v>
+        <v>14.243856954170431</v>
       </c>
       <c r="N10">
-        <v>1.894864316032636</v>
+        <v>1.8948643160326359</v>
       </c>
       <c r="O10">
-        <v>32.86865072187361</v>
+        <v>32.868650721873607</v>
       </c>
       <c r="P10">
         <v>23.33415049228255</v>
@@ -1366,58 +1415,54 @@
         <v>4.454192915299414</v>
       </c>
       <c r="S10">
-        <v>0.4135860172489941</v>
+        <v>0.41358601724899408</v>
       </c>
       <c r="T10">
-        <v>0.3404067858384859</v>
+        <v>0.34040678583848588</v>
       </c>
       <c r="U10">
-        <v>0.4098822227827946</v>
+        <v>0.40988222278279463</v>
       </c>
       <c r="V10">
-        <v>0.6312844459438696</v>
+        <v>0.63128444594386957</v>
       </c>
       <c r="W10">
         <v>1.153627603563969</v>
       </c>
       <c r="X10">
-        <v>0.6610122697954626</v>
+        <v>0.66101226979546257</v>
       </c>
       <c r="Y10">
-        <v>0.8680128535853093</v>
+        <v>0.86801285358530933</v>
       </c>
       <c r="Z10">
-        <v>1.367991994497809</v>
+        <v>1.3679919944978089</v>
       </c>
       <c r="AA10">
-        <v>0.2775781172550043</v>
+        <v>0.27757811725500431</v>
       </c>
       <c r="AB10">
         <v>1.516781876394609</v>
       </c>
       <c r="AC10">
-        <v>0.21436439093384</v>
+        <v>0.21436439093383999</v>
       </c>
       <c r="AD10">
-        <v>0.6487690228093</v>
+        <v>0.64876902280930004</v>
       </c>
       <c r="AE10">
-        <v>-0.3834341525404582</v>
+        <v>-0.38343415254045821</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1426,19 +1471,19 @@
         <v>168.4762428699197</v>
       </c>
       <c r="F11">
-        <v>124.7358845020215</v>
+        <v>124.73588450202151</v>
       </c>
       <c r="G11">
-        <v>99.83418089833806</v>
+        <v>99.834180898338062</v>
       </c>
       <c r="H11">
-        <v>6.742689034925316</v>
+        <v>6.7426890349253163</v>
       </c>
       <c r="I11">
-        <v>6.417190029045457</v>
+        <v>6.4171900290454573</v>
       </c>
       <c r="J11">
-        <v>8.295560651969868</v>
+        <v>8.2955606519698684</v>
       </c>
       <c r="K11">
         <v>5.389422755385624</v>
@@ -1447,190 +1492,182 @@
         <v>22.22018060508702</v>
       </c>
       <c r="M11">
-        <v>35.77736181358136</v>
+        <v>35.777361813581358</v>
       </c>
       <c r="N11">
-        <v>2.542441374188248</v>
+        <v>2.5424413741882481</v>
       </c>
       <c r="O11">
-        <v>13.68122271598402</v>
+        <v>13.681222715984021</v>
       </c>
       <c r="P11">
         <v>118.5827581784832</v>
       </c>
       <c r="Q11">
-        <v>3.314463453072951</v>
+        <v>3.3144634530729511</v>
       </c>
       <c r="R11">
-        <v>0.615711589349183</v>
+        <v>0.61571158934918302</v>
       </c>
       <c r="S11">
-        <v>0.4717465097069253</v>
+        <v>0.47174650970692528</v>
       </c>
       <c r="T11">
-        <v>0.9188457429617752</v>
+        <v>0.91884574296177524</v>
       </c>
       <c r="U11">
-        <v>0.8288331309757448</v>
+        <v>0.82883313097574485</v>
       </c>
       <c r="V11">
-        <v>0.8073449000273433</v>
+        <v>0.80734490002734327</v>
       </c>
       <c r="W11">
-        <v>1.553608312976854</v>
+        <v>1.5536083129768541</v>
       </c>
       <c r="X11">
-        <v>0.7315422517218416</v>
+        <v>0.73154225172184162</v>
       </c>
       <c r="Y11">
         <v>1.346747584554171</v>
       </c>
       <c r="Z11">
-        <v>2.074021547609252</v>
+        <v>2.0740215476092518</v>
       </c>
       <c r="AA11">
-        <v>0.4052509473725254</v>
+        <v>0.40525094737252543</v>
       </c>
       <c r="AB11">
         <v>1.136124912813558</v>
       </c>
       <c r="AC11">
-        <v>0.5204132346323982</v>
+        <v>0.52041323463239819</v>
       </c>
       <c r="AD11">
-        <v>-0.2106226717406124</v>
+        <v>-0.21062267174061239</v>
       </c>
       <c r="AE11">
         <v>-0.3262913043493163</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>177.6842589571735</v>
+        <v>177.68425895717351</v>
       </c>
       <c r="F12">
-        <v>139.932383175185</v>
+        <v>139.93238317518501</v>
       </c>
       <c r="G12">
         <v>111.2279319921943</v>
       </c>
       <c r="H12">
-        <v>7.378733921596278</v>
+        <v>7.3787339215962779</v>
       </c>
       <c r="I12">
-        <v>4.535687794385517</v>
+        <v>4.5356877943855167</v>
       </c>
       <c r="J12">
-        <v>5.106211364149223</v>
+        <v>5.1062113641492228</v>
       </c>
       <c r="K12">
-        <v>4.724697716518922</v>
+        <v>4.7246977165189223</v>
       </c>
       <c r="L12">
-        <v>7.697638777230784</v>
+        <v>7.6976387772307842</v>
       </c>
       <c r="M12">
-        <v>25.61878096587595</v>
+        <v>25.618780965875949</v>
       </c>
       <c r="N12">
-        <v>2.183306472254544</v>
+        <v>2.1833064722545439</v>
       </c>
       <c r="O12">
-        <v>4.107448216423657</v>
+        <v>4.1074482164236574</v>
       </c>
       <c r="P12">
-        <v>60.48039070745517</v>
+        <v>60.480390707455172</v>
       </c>
       <c r="Q12">
-        <v>2.360783317052231</v>
+        <v>2.3607833170522312</v>
       </c>
       <c r="R12">
-        <v>0.5335984625016799</v>
+        <v>0.53359846250167986</v>
       </c>
       <c r="S12">
-        <v>0.4621050071883048</v>
+        <v>0.46210500718830477</v>
       </c>
       <c r="T12">
-        <v>0.7080987878250291</v>
+        <v>0.70809878782502911</v>
       </c>
       <c r="U12">
-        <v>0.8679818498942186</v>
+        <v>0.86798184989421856</v>
       </c>
       <c r="V12">
-        <v>0.6566431530625406</v>
+        <v>0.65664315306254062</v>
       </c>
       <c r="W12">
-        <v>1.408558460600355</v>
+        <v>1.4085584606003549</v>
       </c>
       <c r="X12">
-        <v>0.6743740278193929</v>
+        <v>0.67437402781939293</v>
       </c>
       <c r="Y12">
-        <v>0.8863575273436343</v>
+        <v>0.88635752734363427</v>
       </c>
       <c r="Z12">
         <v>1.78161458807423</v>
       </c>
       <c r="AA12">
-        <v>0.3391147022079726</v>
+        <v>0.33911470220797257</v>
       </c>
       <c r="AB12">
-        <v>0.6135720968878121</v>
+        <v>0.61357209688781211</v>
       </c>
       <c r="AC12">
-        <v>0.3730561274738761</v>
+        <v>0.37305612747387612</v>
       </c>
       <c r="AD12">
-        <v>-0.2727854304558222</v>
+        <v>-0.27278543045582221</v>
       </c>
       <c r="AE12">
-        <v>-0.3352593256114204</v>
+        <v>-0.33525932561142041</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>17</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>129.5353927833961</v>
+        <v>129.53539278339611</v>
       </c>
       <c r="F13">
-        <v>123.7365724356951</v>
+        <v>123.73657243569509</v>
       </c>
       <c r="G13">
         <v>113.6215364121357</v>
       </c>
       <c r="H13">
-        <v>1.911424418355223</v>
+        <v>1.9114244183552229</v>
       </c>
       <c r="I13">
         <v>1.985363107006769</v>
@@ -1642,37 +1679,37 @@
         <v>14.6732811096217</v>
       </c>
       <c r="L13">
-        <v>14.76417526838033</v>
+        <v>14.764175268380329</v>
       </c>
       <c r="M13">
         <v>17.84757573930592</v>
       </c>
       <c r="N13">
-        <v>8.025672662633024</v>
+        <v>8.0256726626330241</v>
       </c>
       <c r="O13">
-        <v>6.880194200052124</v>
+        <v>6.8801942000521237</v>
       </c>
       <c r="P13">
         <v>10.10464880410251</v>
       </c>
       <c r="Q13">
-        <v>0.5661636600789948</v>
+        <v>0.56616366007899477</v>
       </c>
       <c r="R13">
-        <v>0.4660059959317254</v>
+        <v>0.46600599593172543</v>
       </c>
       <c r="S13">
-        <v>0.5469582844269477</v>
+        <v>0.54695828442694772</v>
       </c>
       <c r="T13">
-        <v>0.3924319090189922</v>
+        <v>0.39243190901899222</v>
       </c>
       <c r="U13">
-        <v>0.2813571297993424</v>
+        <v>0.28135712979934241</v>
       </c>
       <c r="V13">
-        <v>0.2978399473449229</v>
+        <v>0.29783994734492292</v>
       </c>
       <c r="W13">
         <v>1.251579233639055</v>
@@ -1681,97 +1718,93 @@
         <v>1.166527237801837</v>
       </c>
       <c r="Y13">
-        <v>1.169209192148018</v>
+        <v>1.1692091921480181</v>
       </c>
       <c r="Z13">
-        <v>1.004521223829468</v>
+        <v>1.0045212238294681</v>
       </c>
       <c r="AA13">
-        <v>0.9044814425008271</v>
+        <v>0.90448144250082707</v>
       </c>
       <c r="AB13">
-        <v>0.837600696785035</v>
+        <v>0.83760069678503501</v>
       </c>
       <c r="AC13">
-        <v>-0.2470580098095868</v>
+        <v>-0.24705800980958681</v>
       </c>
       <c r="AD13">
         <v>-0.3316084953629832</v>
       </c>
       <c r="AE13">
-        <v>-0.2620457953010095</v>
+        <v>-0.26204579530100952</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>18</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>154.4143102619693</v>
+        <v>154.41431026196929</v>
       </c>
       <c r="F14">
         <v>97.58480487560314</v>
       </c>
       <c r="G14">
-        <v>92.98594417782859</v>
+        <v>92.985944177828586</v>
       </c>
       <c r="H14">
-        <v>3.074139086936189</v>
+        <v>3.0741390869361891</v>
       </c>
       <c r="I14">
-        <v>8.16152720486623</v>
+        <v>8.1615272048662302</v>
       </c>
       <c r="J14">
-        <v>25.71813022406121</v>
+        <v>25.718130224061209</v>
       </c>
       <c r="K14">
-        <v>7.553452720053818</v>
+        <v>7.5534527200538184</v>
       </c>
       <c r="L14">
-        <v>61.52867013886308</v>
+        <v>61.528670138863077</v>
       </c>
       <c r="M14">
         <v>121.0184700764418</v>
       </c>
       <c r="N14">
-        <v>3.25535792609865</v>
+        <v>3.2553579260986498</v>
       </c>
       <c r="O14">
-        <v>150.9311447117314</v>
+        <v>150.93114471173141</v>
       </c>
       <c r="P14">
-        <v>684.8708875813917</v>
+        <v>684.87088758139168</v>
       </c>
       <c r="Q14">
-        <v>5.659226125968956</v>
+        <v>5.6592261259689556</v>
       </c>
       <c r="R14">
-        <v>2.45302140239822</v>
+        <v>2.4530214023982202</v>
       </c>
       <c r="S14">
-        <v>0.4309761438574882</v>
+        <v>0.43097614385748823</v>
       </c>
       <c r="T14">
         <v>1.410239391044938</v>
       </c>
       <c r="U14">
-        <v>0.4877235129107629</v>
+        <v>0.48772351291076288</v>
       </c>
       <c r="V14">
-        <v>0.9117714326003279</v>
+        <v>0.91177143260032789</v>
       </c>
       <c r="W14">
         <v>2.082851658251351</v>
@@ -1786,148 +1819,140 @@
         <v>2.83560870565876</v>
       </c>
       <c r="AA14">
-        <v>0.5125987461403596</v>
+        <v>0.51259874614035961</v>
       </c>
       <c r="AB14">
         <v>2.178778865890922</v>
       </c>
       <c r="AC14">
-        <v>0.7527570474074097</v>
+        <v>0.75275704740740967</v>
       </c>
       <c r="AD14">
-        <v>0.3897013374044687</v>
+        <v>0.38970133740446872</v>
       </c>
       <c r="AE14">
-        <v>-0.3655467689988875</v>
+        <v>-0.36554676899888749</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>19</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>179.2984209941904</v>
+        <v>179.29842099419039</v>
       </c>
       <c r="F15">
-        <v>166.4479677227206</v>
+        <v>166.44796772272059</v>
       </c>
       <c r="G15">
-        <v>129.0766933324178</v>
+        <v>129.07669333241779</v>
       </c>
       <c r="H15">
-        <v>5.220559097274521</v>
+        <v>5.2205590972745206</v>
       </c>
       <c r="I15">
-        <v>3.181501409634928</v>
+        <v>3.1815014096349281</v>
       </c>
       <c r="J15">
         <v>2.80747034956745</v>
       </c>
       <c r="K15">
-        <v>4.475876791992193</v>
+        <v>4.4758767919921931</v>
       </c>
       <c r="L15">
-        <v>5.247827125626001</v>
+        <v>5.2478271256260012</v>
       </c>
       <c r="M15">
-        <v>9.24118822217001</v>
+        <v>9.2411882221700097</v>
       </c>
       <c r="N15">
-        <v>1.840025710563831</v>
+        <v>1.8400257105638309</v>
       </c>
       <c r="O15">
-        <v>2.354149588956508</v>
+        <v>2.3541495889565081</v>
       </c>
       <c r="P15">
-        <v>25.81152559801596</v>
+        <v>25.811525598015962</v>
       </c>
       <c r="Q15">
-        <v>2.793095971802955</v>
+        <v>2.7930959718029551</v>
       </c>
       <c r="R15">
-        <v>0.4485951104335753</v>
+        <v>0.44859511043357531</v>
       </c>
       <c r="S15">
         <v>0.4110983827472256</v>
       </c>
       <c r="T15">
-        <v>0.4483151782595003</v>
+        <v>0.44831517825950029</v>
       </c>
       <c r="U15">
         <v>0.7177170163851454</v>
       </c>
       <c r="V15">
-        <v>0.5026321199961108</v>
+        <v>0.50263211999611079</v>
       </c>
       <c r="W15">
-        <v>0.9657278159337926</v>
+        <v>0.96572781593379264</v>
       </c>
       <c r="X15">
-        <v>0.650878123143538</v>
+        <v>0.65087812314353799</v>
       </c>
       <c r="Y15">
-        <v>0.7199795200369453</v>
+        <v>0.71997952003694532</v>
       </c>
       <c r="Z15">
         <v>1.411813674409006</v>
       </c>
       <c r="AA15">
-        <v>0.2648238914214862</v>
+        <v>0.26482389142148621</v>
       </c>
       <c r="AB15">
-        <v>0.371834055616284</v>
+        <v>0.37183405561628402</v>
       </c>
       <c r="AC15">
-        <v>0.446085858475213</v>
+        <v>0.44608585847521298</v>
       </c>
       <c r="AD15">
         <v>-0.3481454644206613</v>
       </c>
       <c r="AE15">
-        <v>-0.3860542317220518</v>
+        <v>-0.38605423172205178</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>166.9300564609142</v>
+        <v>166.93005646091419</v>
       </c>
       <c r="F16">
-        <v>121.7513351650992</v>
+        <v>121.75133516509921</v>
       </c>
       <c r="G16">
-        <v>97.56471648369487</v>
+        <v>97.564716483694866</v>
       </c>
       <c r="H16">
-        <v>9.897325659728624</v>
+        <v>9.8973256597286241</v>
       </c>
       <c r="I16">
         <v>4.318564576337562</v>
@@ -1936,31 +1961,31 @@
         <v>16.57868003125871</v>
       </c>
       <c r="K16">
-        <v>6.146883413528731</v>
+        <v>6.1468834135287311</v>
       </c>
       <c r="L16">
         <v>12.08319059347488</v>
       </c>
       <c r="M16">
-        <v>111.1366384564627</v>
+        <v>111.13663845646271</v>
       </c>
       <c r="N16">
-        <v>2.498990141839437</v>
+        <v>2.4989901418394371</v>
       </c>
       <c r="O16">
-        <v>72.5368660320925</v>
+        <v>72.536866032092504</v>
       </c>
       <c r="P16">
-        <v>970.4547066443035</v>
+        <v>970.45470664430354</v>
       </c>
       <c r="Q16">
-        <v>8.73208619697882</v>
+        <v>8.7320861969788197</v>
       </c>
       <c r="R16">
-        <v>6.003121896567914</v>
+        <v>6.0031218965679143</v>
       </c>
       <c r="S16">
-        <v>0.4065458824775149</v>
+        <v>0.40654588247751489</v>
       </c>
       <c r="T16">
         <v>1.219549949738931</v>
@@ -1969,148 +1994,140 @@
         <v>0.9955178604434709</v>
       </c>
       <c r="V16">
-        <v>0.6353394180723255</v>
+        <v>0.63533941807232552</v>
       </c>
       <c r="W16">
         <v>2.045857256567702</v>
       </c>
       <c r="X16">
-        <v>0.788654976039142</v>
+        <v>0.78865497603914203</v>
       </c>
       <c r="Y16">
-        <v>1.082181625856396</v>
+        <v>1.0821816258563961</v>
       </c>
       <c r="Z16">
-        <v>2.986975270673917</v>
+        <v>2.9869752706739172</v>
       </c>
       <c r="AA16">
-        <v>0.3977645428998879</v>
+        <v>0.39776454289988789</v>
       </c>
       <c r="AB16">
-        <v>1.860558787881157</v>
+        <v>1.8605587878811569</v>
       </c>
       <c r="AC16">
-        <v>0.9411180141062143</v>
+        <v>0.94111801410621432</v>
       </c>
       <c r="AD16">
-        <v>0.7783771620247606</v>
+        <v>0.77837716202476059</v>
       </c>
       <c r="AE16">
         <v>-0.3908904331392542</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>164.3192834960307</v>
+        <v>164.31928349603069</v>
       </c>
       <c r="F17">
-        <v>126.177811845293</v>
+        <v>126.17781184529299</v>
       </c>
       <c r="G17">
-        <v>96.81280340701095</v>
+        <v>96.812803407010946</v>
       </c>
       <c r="H17">
         <v>27.13550080110376</v>
       </c>
       <c r="I17">
-        <v>2.715879231483785</v>
+        <v>2.7158792314837852</v>
       </c>
       <c r="J17">
-        <v>5.13501908981347</v>
+        <v>5.1350190898134702</v>
       </c>
       <c r="K17">
-        <v>10.98326320615175</v>
+        <v>10.983263206151751</v>
       </c>
       <c r="L17">
-        <v>5.535823922551981</v>
+        <v>5.5358239225519812</v>
       </c>
       <c r="M17">
-        <v>23.75900534833048</v>
+        <v>23.759005348330479</v>
       </c>
       <c r="N17">
-        <v>9.293599227892171</v>
+        <v>9.2935992278921713</v>
       </c>
       <c r="O17">
-        <v>7.423205042768211</v>
+        <v>7.4232050427682106</v>
       </c>
       <c r="P17">
-        <v>43.17972061760317</v>
+        <v>43.179720617603166</v>
       </c>
       <c r="Q17">
         <v>1.817404389811182</v>
       </c>
       <c r="R17">
-        <v>1.340939514446507</v>
+        <v>1.3409395144465071</v>
       </c>
       <c r="S17">
-        <v>0.8461601122958434</v>
+        <v>0.84616011229584343</v>
       </c>
       <c r="T17">
-        <v>0.7105420624581734</v>
+        <v>0.71054206245817342</v>
       </c>
       <c r="U17">
         <v>1.433537841141177</v>
       </c>
       <c r="V17">
-        <v>0.4339104540229324</v>
+        <v>0.43391045402293238</v>
       </c>
       <c r="W17">
-        <v>1.375828255300173</v>
+        <v>1.3758282553001731</v>
       </c>
       <c r="X17">
         <v>1.040731391286674</v>
       </c>
       <c r="Y17">
-        <v>0.7431822681032936</v>
+        <v>0.74318226810329358</v>
       </c>
       <c r="Z17">
-        <v>1.635279828025405</v>
+        <v>1.6352798280254051</v>
       </c>
       <c r="AA17">
-        <v>0.9681839402681173</v>
+        <v>0.96818394026811727</v>
       </c>
       <c r="AB17">
-        <v>0.8705914567419517</v>
+        <v>0.87059145674195171</v>
       </c>
       <c r="AC17">
-        <v>0.2594515727252319</v>
+        <v>0.25945157272523189</v>
       </c>
       <c r="AD17">
-        <v>0.1274091886386581</v>
+        <v>0.12740918863865811</v>
       </c>
       <c r="AE17">
-        <v>-0.07254745101855659</v>
+        <v>-7.2547451018556586E-2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2119,28 +2136,28 @@
         <v>182.3465896056089</v>
       </c>
       <c r="F18">
-        <v>145.8684012236465</v>
+        <v>145.86840122364649</v>
       </c>
       <c r="G18">
-        <v>122.0216323072737</v>
+        <v>122.02163230727371</v>
       </c>
       <c r="H18">
-        <v>3.309078421554897</v>
+        <v>3.3090784215548972</v>
       </c>
       <c r="I18">
-        <v>3.375771516753369</v>
+        <v>3.3757715167533688</v>
       </c>
       <c r="J18">
         <v>3.267261850546868</v>
       </c>
       <c r="K18">
-        <v>2.233139939621363</v>
+        <v>2.2331399396213629</v>
       </c>
       <c r="L18">
         <v>6.887363588855905</v>
       </c>
       <c r="M18">
-        <v>11.5472752262283</v>
+        <v>11.547275226228299</v>
       </c>
       <c r="N18">
         <v>1.101151941530718</v>
@@ -2149,106 +2166,102 @@
         <v>3.549839250309192</v>
       </c>
       <c r="P18">
-        <v>57.55177052653312</v>
+        <v>57.551770526533119</v>
       </c>
       <c r="Q18">
-        <v>4.98401305927228</v>
+        <v>4.9840130592722804</v>
       </c>
       <c r="R18">
         <v>0.5154133660161353</v>
       </c>
       <c r="S18">
-        <v>0.4930958073847456</v>
+        <v>0.49309580738474562</v>
       </c>
       <c r="T18">
-        <v>0.5141839418493229</v>
+        <v>0.51418394184932292</v>
       </c>
       <c r="U18">
-        <v>0.5197070595880735</v>
+        <v>0.51970705958807351</v>
       </c>
       <c r="V18">
-        <v>0.5283730444787313</v>
+        <v>0.52837304447873135</v>
       </c>
       <c r="W18">
-        <v>1.062479517230876</v>
+        <v>1.0624795172308761</v>
       </c>
       <c r="X18">
-        <v>0.3489159389698196</v>
+        <v>0.34891593896981959</v>
       </c>
       <c r="Y18">
-        <v>0.8380530103071988</v>
+        <v>0.83805301030719881</v>
       </c>
       <c r="Z18">
         <v>1.760058688835934</v>
       </c>
       <c r="AA18">
-        <v>0.04184724886779848</v>
+        <v>4.1847248867798482E-2</v>
       </c>
       <c r="AB18">
-        <v>0.5502086870595029</v>
+        <v>0.55020868705950288</v>
       </c>
       <c r="AC18">
-        <v>0.6975791716050576</v>
+        <v>0.69757917160505756</v>
       </c>
       <c r="AD18">
-        <v>-0.287844323247696</v>
+        <v>-0.28784432324769599</v>
       </c>
       <c r="AE18">
-        <v>-0.3070686901020211</v>
+        <v>-0.30706869010202109</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>167.298528795296</v>
+        <v>167.29852879529599</v>
       </c>
       <c r="F19">
         <v>104.5040945760712</v>
       </c>
       <c r="G19">
-        <v>92.98050906711693</v>
+        <v>92.980509067116927</v>
       </c>
       <c r="H19">
         <v>3.249881289380379</v>
       </c>
       <c r="I19">
-        <v>5.23843263491943</v>
+        <v>5.2384326349194303</v>
       </c>
       <c r="J19">
-        <v>7.234178138064878</v>
+        <v>7.2341781380648777</v>
       </c>
       <c r="K19">
-        <v>5.76971701715943</v>
+        <v>5.7697170171594303</v>
       </c>
       <c r="L19">
-        <v>33.352812550854</v>
+        <v>33.352812550853997</v>
       </c>
       <c r="M19">
-        <v>47.50775159959745</v>
+        <v>47.507751599597448</v>
       </c>
       <c r="N19">
-        <v>2.601633960304596</v>
+        <v>2.6016339603045959</v>
       </c>
       <c r="O19">
-        <v>46.33559784237411</v>
+        <v>46.335597842374113</v>
       </c>
       <c r="P19">
-        <v>79.31293082853578</v>
+        <v>79.312930828535784</v>
       </c>
       <c r="Q19">
         <v>1.669473468182566</v>
@@ -2260,163 +2273,155 @@
         <v>0.4509118822582121</v>
       </c>
       <c r="T19">
-        <v>0.8593891988444641</v>
+        <v>0.85938919884446408</v>
       </c>
       <c r="U19">
-        <v>0.5118674974992953</v>
+        <v>0.51186749749929528</v>
       </c>
       <c r="V19">
-        <v>0.7192013633521279</v>
+        <v>0.71920136335212792</v>
       </c>
       <c r="W19">
         <v>1.676764477041091</v>
       </c>
       <c r="X19">
-        <v>0.7611545131730759</v>
+        <v>0.76115451317307592</v>
       </c>
       <c r="Y19">
-        <v>1.523132462654747</v>
+        <v>1.5231324626547471</v>
       </c>
       <c r="Z19">
-        <v>1.899343998536621</v>
+        <v>1.8993439985366209</v>
       </c>
       <c r="AA19">
-        <v>0.4152461929932439</v>
+        <v>0.41524619299324389</v>
       </c>
       <c r="AB19">
-        <v>1.665914770852743</v>
+        <v>1.6659147708527431</v>
       </c>
       <c r="AC19">
-        <v>0.2225795214955308</v>
+        <v>0.22257952149553081</v>
       </c>
       <c r="AD19">
-        <v>0.1427823081979953</v>
+        <v>0.14278230819799531</v>
       </c>
       <c r="AE19">
-        <v>-0.3459083201798321</v>
+        <v>-0.34590832017983209</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>28</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>178.9902632714839</v>
+        <v>178.99026327148391</v>
       </c>
       <c r="F20">
-        <v>137.9372939449156</v>
+        <v>137.93729394491561</v>
       </c>
       <c r="G20">
         <v>119.5256782181026</v>
       </c>
       <c r="H20">
-        <v>2.478478796128096</v>
+        <v>2.4784787961280959</v>
       </c>
       <c r="I20">
         <v>2.479326284201774</v>
       </c>
       <c r="J20">
-        <v>3.531936617666444</v>
+        <v>3.5319366176664442</v>
       </c>
       <c r="K20">
-        <v>4.76053354474939</v>
+        <v>4.7605335447493902</v>
       </c>
       <c r="L20">
-        <v>7.342673538343737</v>
+        <v>7.3426735383437371</v>
       </c>
       <c r="M20">
-        <v>6.675489794017597</v>
+        <v>6.6754897940175972</v>
       </c>
       <c r="N20">
-        <v>1.899330675986158</v>
+        <v>1.8993306759861579</v>
       </c>
       <c r="O20">
-        <v>5.354492474167674</v>
+        <v>5.3544924741676736</v>
       </c>
       <c r="P20">
-        <v>76.60447135543809</v>
+        <v>76.604471355438093</v>
       </c>
       <c r="Q20">
         <v>11.47548325578882</v>
       </c>
       <c r="R20">
-        <v>0.7292292713554944</v>
+        <v>0.72922927135549442</v>
       </c>
       <c r="S20">
-        <v>0.3989743288503904</v>
+        <v>0.39897432885039041</v>
       </c>
       <c r="T20">
-        <v>0.5480129013481411</v>
+        <v>0.54801290134814107</v>
       </c>
       <c r="U20">
-        <v>0.3941852077826448</v>
+        <v>0.39418520778264482</v>
       </c>
       <c r="V20">
-        <v>0.3943336845345536</v>
+        <v>0.39433368453455359</v>
       </c>
       <c r="W20">
-        <v>0.8244831362591244</v>
+        <v>0.82448313625912439</v>
       </c>
       <c r="X20">
-        <v>0.6776556297278609</v>
+        <v>0.67765562972786086</v>
       </c>
       <c r="Y20">
-        <v>0.8658542195263952</v>
+        <v>0.86585421952639519</v>
       </c>
       <c r="Z20">
-        <v>1.884254119871755</v>
+        <v>1.8842541198717551</v>
       </c>
       <c r="AA20">
-        <v>0.2786005825642683</v>
+        <v>0.27860058256426828</v>
       </c>
       <c r="AB20">
-        <v>0.7287183124948348</v>
+        <v>0.72871831249483476</v>
       </c>
       <c r="AC20">
         <v>1.059770983612631</v>
       </c>
       <c r="AD20">
-        <v>-0.1371359070315605</v>
+        <v>-0.13713590703156051</v>
       </c>
       <c r="AE20">
-        <v>-0.3990550471635925</v>
+        <v>-0.39905504716359252</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>32</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>165.7708178751897</v>
+        <v>165.77081787518969</v>
       </c>
       <c r="F21">
-        <v>134.7800931636482</v>
+        <v>134.78009316364819</v>
       </c>
       <c r="G21">
         <v>115.5182029616837</v>
@@ -2428,85 +2433,81 @@
         <v>2.676829007208914</v>
       </c>
       <c r="J21">
-        <v>5.958923722434504</v>
+        <v>5.9589237224345037</v>
       </c>
       <c r="K21">
-        <v>5.39394540883711</v>
+        <v>5.3939454088371104</v>
       </c>
       <c r="L21">
-        <v>7.97794153913369</v>
+        <v>7.9779415391336901</v>
       </c>
       <c r="M21">
         <v>12.33952034587165</v>
       </c>
       <c r="N21">
-        <v>2.389438944681816</v>
+        <v>2.3894389446818161</v>
       </c>
       <c r="O21">
-        <v>4.063293215315047</v>
+        <v>4.0632932153150474</v>
       </c>
       <c r="P21">
-        <v>5.561644587320356</v>
+        <v>5.5616445873203562</v>
       </c>
       <c r="Q21">
-        <v>0.450718053168175</v>
+        <v>0.45071805316817498</v>
       </c>
       <c r="R21">
-        <v>0.5093159927762861</v>
+        <v>0.50931599277628614</v>
       </c>
       <c r="S21">
-        <v>0.4429853777843404</v>
+        <v>0.44298537778434038</v>
       </c>
       <c r="T21">
-        <v>0.7751678262474401</v>
+        <v>0.77516782624744007</v>
       </c>
       <c r="U21">
-        <v>0.5471187115733525</v>
+        <v>0.54711871157335246</v>
       </c>
       <c r="V21">
-        <v>0.4276206298356346</v>
+        <v>0.42762062983563459</v>
       </c>
       <c r="W21">
         <v>1.091298278401454</v>
       </c>
       <c r="X21">
-        <v>0.7319065467218449</v>
+        <v>0.73190654672184485</v>
       </c>
       <c r="Y21">
-        <v>0.9018908495565897</v>
+        <v>0.90189084955658971</v>
       </c>
       <c r="Z21">
-        <v>0.7452032321553624</v>
+        <v>0.74520323215536244</v>
       </c>
       <c r="AA21">
-        <v>0.3782959378379613</v>
+        <v>0.37829593783796128</v>
       </c>
       <c r="AB21">
-        <v>0.6088781630102919</v>
+        <v>0.60887816301029185</v>
       </c>
       <c r="AC21">
-        <v>-0.3460950462460921</v>
+        <v>-0.34609504624609211</v>
       </c>
       <c r="AD21">
-        <v>-0.2930126865462978</v>
+        <v>-0.29301268654629781</v>
       </c>
       <c r="AE21">
-        <v>-0.3536106088838836</v>
+        <v>-0.35361060888388363</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>33</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2515,10 +2516,10 @@
         <v>168.6266780792657</v>
       </c>
       <c r="F22">
-        <v>149.7330505020915</v>
+        <v>149.73305050209149</v>
       </c>
       <c r="G22">
-        <v>120.6263948038953</v>
+        <v>120.62639480389529</v>
       </c>
       <c r="H22">
         <v>40.44597165820911</v>
@@ -2527,37 +2528,37 @@
         <v>15.6452984093913</v>
       </c>
       <c r="J22">
-        <v>6.909830874331209</v>
+        <v>6.9098308743312087</v>
       </c>
       <c r="K22">
-        <v>756.8178921475912</v>
+        <v>756.81789214759124</v>
       </c>
       <c r="L22">
-        <v>18.50637356639741</v>
+        <v>18.506373566397411</v>
       </c>
       <c r="M22">
-        <v>22.18595593986783</v>
+        <v>22.185955939867831</v>
       </c>
       <c r="N22">
-        <v>403.8011891368179</v>
+        <v>403.80118913681792</v>
       </c>
       <c r="O22">
         <v>10.02046609301393</v>
       </c>
       <c r="P22">
-        <v>13.35752799417834</v>
+        <v>13.357527994178341</v>
       </c>
       <c r="Q22">
-        <v>0.6020713297359012</v>
+        <v>0.60207132973590116</v>
       </c>
       <c r="R22">
-        <v>0.5414602735140069</v>
+        <v>0.54146027351400694</v>
       </c>
       <c r="S22">
-        <v>0.5335513249970449</v>
+        <v>0.53355132499704494</v>
       </c>
       <c r="T22">
-        <v>0.8394674176717981</v>
+        <v>0.83946741767179811</v>
       </c>
       <c r="U22">
         <v>1.606875273198455</v>
@@ -2569,7 +2570,7 @@
         <v>1.346078146167984</v>
       </c>
       <c r="X22">
-        <v>2.878991390794788</v>
+        <v>2.8789913907947882</v>
       </c>
       <c r="Y22">
         <v>1.267321324511848</v>
@@ -2578,55 +2579,51 @@
         <v>1.125726093033079</v>
       </c>
       <c r="AA22">
-        <v>2.606167593544713</v>
+        <v>2.6061675935447131</v>
       </c>
       <c r="AB22">
-        <v>1.000887922820269</v>
+        <v>1.0008879228202689</v>
       </c>
       <c r="AC22">
-        <v>-0.2203520531349059</v>
+        <v>-0.22035205313490591</v>
       </c>
       <c r="AD22">
         <v>-0.2664334016915797</v>
       </c>
       <c r="AE22">
-        <v>-0.2728237972500751</v>
+        <v>-0.27282379725007511</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>35</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>180.4075373098285</v>
+        <v>180.40753730982851</v>
       </c>
       <c r="F23">
         <v>149.547997297064</v>
       </c>
       <c r="G23">
-        <v>129.156589518828</v>
+        <v>129.15658951882801</v>
       </c>
       <c r="H23">
-        <v>3.761872591310729</v>
+        <v>3.7618725913107292</v>
       </c>
       <c r="I23">
-        <v>3.002266717359266</v>
+        <v>3.0022667173592659</v>
       </c>
       <c r="J23">
-        <v>2.466969294504928</v>
+        <v>2.4669692945049282</v>
       </c>
       <c r="K23">
         <v>4.585768188245174</v>
@@ -2635,37 +2632,37 @@
         <v>10.28664347815522</v>
       </c>
       <c r="M23">
-        <v>4.197366646759182</v>
+        <v>4.1973666467591819</v>
       </c>
       <c r="N23">
-        <v>2.064875653820509</v>
+        <v>2.0648756538205091</v>
       </c>
       <c r="O23">
-        <v>4.15283925229912</v>
+        <v>4.1528392522991204</v>
       </c>
       <c r="P23">
         <v>4.627769842171392</v>
       </c>
       <c r="Q23">
-        <v>1.102541243506694</v>
+        <v>1.1025412435066939</v>
       </c>
       <c r="R23">
         <v>0.4037117900623382</v>
       </c>
       <c r="S23">
-        <v>0.450279117708885</v>
+        <v>0.45027911770888501</v>
       </c>
       <c r="T23">
-        <v>0.3921637440134236</v>
+        <v>0.39216374401342358</v>
       </c>
       <c r="U23">
-        <v>0.5754040825945554</v>
+        <v>0.57540408259455544</v>
       </c>
       <c r="V23">
-        <v>0.4774492717619955</v>
+        <v>0.47744927176199548</v>
       </c>
       <c r="W23">
-        <v>0.6229769071932634</v>
+        <v>0.62297690719326337</v>
       </c>
       <c r="X23">
         <v>0.6614120972516434</v>
@@ -2674,22 +2671,22 @@
         <v>1.012273688006762</v>
       </c>
       <c r="Z23">
-        <v>0.665371751584702</v>
+        <v>0.66537175158470196</v>
       </c>
       <c r="AA23">
-        <v>0.3148939036991589</v>
+        <v>0.31489390369915887</v>
       </c>
       <c r="AB23">
-        <v>0.6183451208063414</v>
+        <v>0.61834512080634141</v>
       </c>
       <c r="AC23">
-        <v>0.04239484439143859</v>
+        <v>4.2394844391438591E-2</v>
       </c>
       <c r="AD23">
-        <v>-0.3939285672004209</v>
+        <v>-0.39392856720042091</v>
       </c>
       <c r="AE23">
-        <v>-0.3465181935524845</v>
+        <v>-0.34651819355248448</v>
       </c>
     </row>
   </sheetData>
